--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1618.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1618.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158381722343943</v>
+        <v>0.7663859724998474</v>
       </c>
       <c r="B1">
-        <v>2.762708709000448</v>
+        <v>2.652182102203369</v>
       </c>
       <c r="C1">
-        <v>4.512777610197653</v>
+        <v>4.884721279144287</v>
       </c>
       <c r="D1">
-        <v>2.208396767902869</v>
+        <v>2.829785823822021</v>
       </c>
       <c r="E1">
-        <v>1.059291827272494</v>
+        <v>1.005312919616699</v>
       </c>
     </row>
   </sheetData>
